--- a/backend/src/relatorios/carrinhos_abandonados.xlsx
+++ b/backend/src/relatorios/carrinhos_abandonados.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,114 +430,108 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2338</v>
-      </c>
-      <c r="B2" t="str">
-        <v>manual</v>
+        <v>2358</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-25 15:10:34</v>
+        <v>2025-09-29 13:04:37</v>
       </c>
       <c r="D2" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E2" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F2" t="str">
-        <v>Aline Klossoski</v>
+        <v>Damião Augusto De Souza Augusto</v>
       </c>
       <c r="G2" t="str">
-        <v>aline.silvestre@atlanticont.com.br</v>
+        <v>augusto.damiao2@hotmail.com</v>
       </c>
       <c r="H2" t="str">
-        <v>0 0</v>
+        <v>21 970022181</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2336</v>
-      </c>
-      <c r="B3" t="str">
-        <v>manual</v>
+        <v>2357</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-09-25 11:23:32</v>
+        <v>2025-09-29 12:47:54</v>
       </c>
       <c r="D3" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E3" t="str">
-        <v>Nova Iguaçu</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F3" t="str">
-        <v>Raphael Leal</v>
+        <v>Market Sport Brasil</v>
       </c>
       <c r="G3" t="str">
-        <v>lealraphael13@gmail.com</v>
+        <v>compras@marketsport.com.br</v>
       </c>
       <c r="H3" t="str">
-        <v>0 0</v>
+        <v>21 67604664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2335</v>
+        <v>2356</v>
+      </c>
+      <c r="B4" t="str">
+        <v>manual</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-09-25 10:57:57</v>
+        <v>2025-09-29 12:44:32</v>
       </c>
       <c r="D4" t="str">
-        <v>Espírito Santo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E4" t="str">
-        <v>Marataízes</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F4" t="str">
-        <v>Associação Raízes Nea Bc</v>
+        <v>Jonathan Boechat</v>
       </c>
       <c r="G4" t="str">
-        <v>compras@neabc.org.br</v>
+        <v>adm@conexaorastreadores.com.br</v>
       </c>
       <c r="H4" t="str">
-        <v>22 999561648</v>
+        <v>21 35409226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2332</v>
-      </c>
-      <c r="B5" t="str">
-        <v>manual</v>
+        <v>2355</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-09-25 10:22:33</v>
+        <v>2025-09-28 13:57:16</v>
       </c>
       <c r="D5" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E5" t="str">
-        <v>Niterói</v>
+        <v>Queimados</v>
       </c>
       <c r="F5" t="str">
-        <v>Rhaiany Andrade</v>
+        <v>Thiago Duarte Da Costa</v>
       </c>
       <c r="G5" t="str">
-        <v>elite.turismo@hotmail.com</v>
+        <v>thiago.duartedacosta@gmail.com</v>
       </c>
       <c r="H5" t="str">
-        <v>0 0</v>
+        <v>21 994002341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2331</v>
+        <v>2354</v>
       </c>
       <c r="B6" t="str">
-        <v>manual</v>
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>2025-09-25 10:06:06</v>
+        <v>2025-09-28 11:51:11</v>
       </c>
       <c r="D6" t="str">
         <v>Rio de Janeiro</v>
@@ -546,119 +540,113 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F6" t="str">
-        <v>Fabio Lamar</v>
+        <v>Patricia Freitas De Souza</v>
       </c>
       <c r="G6" t="str">
-        <v>admecommercerj03@cassarottifoods.com.br</v>
+        <v>sb.souzabraga@gmail.com</v>
       </c>
       <c r="H6" t="str">
-        <v>43 31322477</v>
+        <v>21 980417614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2330</v>
-      </c>
-      <c r="B7" t="str">
-        <v>manual</v>
+        <v>2353</v>
       </c>
       <c r="C7" t="str">
-        <v>2025-09-25 09:48:05</v>
+        <v>2025-09-28 11:43:25</v>
       </c>
       <c r="D7" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E7" t="str">
-        <v>Duque De Caxias</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F7" t="str">
-        <v>Wagner Jorge</v>
+        <v>Patricia Freitas De Souza</v>
       </c>
       <c r="G7" t="str">
-        <v>wagner.jorge@nitriflex.com.br</v>
+        <v>sb.souzabraga@gmail.com</v>
       </c>
       <c r="H7" t="str">
-        <v>21 21283465</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2329</v>
-      </c>
-      <c r="B8" t="str">
-        <v>manual</v>
+        <v>2351</v>
       </c>
       <c r="C8" t="str">
-        <v>2025-09-25 09:09:02</v>
+        <v>2025-09-27 01:12:53</v>
       </c>
       <c r="D8" t="str">
-        <v>Pará</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E8" t="str">
-        <v>Belém</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F8" t="str">
-        <v>Ir Maria Domingas Damasceno Rodrigues</v>
+        <v>Diego Pereira</v>
       </c>
       <c r="G8" t="str">
-        <v>economato.montetabor@sementesdoverbo.org</v>
+        <v>didi2014@gmail.com</v>
       </c>
       <c r="H8" t="str">
-        <v>0 0</v>
+        <v>21 965323197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2328</v>
+        <v>2350</v>
       </c>
       <c r="C9" t="str">
-        <v>2025-09-25 01:21:25</v>
+        <v>2025-09-26 17:22:51</v>
       </c>
       <c r="D9" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E9" t="str">
-        <v>São João de Meriti</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F9" t="str">
-        <v>Patrick Perrotte De Lima</v>
+        <v>Roberta Louzão</v>
       </c>
       <c r="G9" t="str">
-        <v>patrickperrottetjm@gmail.com</v>
+        <v>contato@studiospasa.com.br</v>
       </c>
       <c r="H9" t="str">
-        <v>21 971965534</v>
+        <v>21 32285682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2327</v>
+        <v>2349</v>
       </c>
       <c r="C10" t="str">
-        <v>2025-09-25 01:06:04</v>
+        <v>2025-09-26 15:11:09</v>
       </c>
       <c r="D10" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E10" t="str">
-        <v>São João de Meriti</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F10" t="str">
-        <v>Patrick Perrotte De Lima</v>
+        <v>Jrr De Sá Ensino De Idiomas Ltda Jrr De Sá Ensino De Idiomas Ltda</v>
       </c>
       <c r="G10" t="str">
-        <v>patrickperrottetjm@gmail.com</v>
+        <v>centro147.rj@gmail.com</v>
       </c>
       <c r="H10" t="str">
-        <v>21 971965534</v>
+        <v>21 951119632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2326</v>
+        <v>2348</v>
       </c>
       <c r="C11" t="str">
-        <v>2025-09-24 19:10:06</v>
+        <v>2025-09-26 14:35:29</v>
       </c>
       <c r="D11" t="str">
         <v>Rio de Janeiro</v>
@@ -667,24 +655,24 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F11" t="str">
-        <v>Luiz Araujo</v>
+        <v>Luciano Lima Guedes</v>
       </c>
       <c r="G11" t="str">
-        <v>papaifuguinha@gmail.com</v>
+        <v>admcentroriodejaneiro.rj@escola.wiseup.com</v>
       </c>
       <c r="H11" t="str">
-        <v>21 987938741</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2325</v>
+        <v>2347</v>
       </c>
       <c r="B12" t="str">
         <v>manual</v>
       </c>
       <c r="C12" t="str">
-        <v>2025-09-24 16:22:43</v>
+        <v>2025-09-26 14:03:03</v>
       </c>
       <c r="D12" t="str">
         <v>Rio de Janeiro</v>
@@ -693,73 +681,70 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F12" t="str">
-        <v>Elaine Marins</v>
+        <v>Aline Teixeira</v>
       </c>
       <c r="G12" t="str">
-        <v>compras@alpitelbrasil.com.br</v>
+        <v>sp.reservapontal@markbuilding.com.br</v>
       </c>
       <c r="H12" t="str">
-        <v>11 21251454</v>
+        <v>21 32175655</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2324</v>
-      </c>
-      <c r="B13" t="str">
-        <v>manual</v>
+        <v>2346</v>
       </c>
       <c r="C13" t="str">
-        <v>2025-09-24 16:18:57</v>
+        <v>2025-09-26 13:56:23</v>
       </c>
       <c r="D13" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="E13" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Marataízes</v>
       </c>
       <c r="F13" t="str">
-        <v>Gisely De Jesus Amâncio</v>
+        <v>Associação Raízes Nea Bc</v>
       </c>
       <c r="G13" t="str">
-        <v>financeiro@ampher.com.br</v>
+        <v>compras@neabc.org.br</v>
       </c>
       <c r="H13" t="str">
-        <v>0 0</v>
+        <v>22 999561648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2321</v>
+        <v>2345</v>
       </c>
       <c r="C14" t="str">
-        <v>2025-09-24 14:45:28</v>
+        <v>2025-09-26 12:25:49</v>
       </c>
       <c r="D14" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="E14" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Marataízes</v>
       </c>
       <c r="F14" t="str">
-        <v>Amanda Santiago</v>
+        <v>Associação Raízes Nea Bc</v>
       </c>
       <c r="G14" t="str">
-        <v>financeiro.direitouerj@gmail.com</v>
+        <v>compras@neabc.org.br</v>
       </c>
       <c r="H14" t="str">
-        <v>21 23340507</v>
+        <v>22 999561648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2320</v>
+        <v>2343</v>
       </c>
       <c r="B15" t="str">
         <v>manual</v>
       </c>
       <c r="C15" t="str">
-        <v>2025-09-24 10:48:28</v>
+        <v>2025-09-26 10:34:40</v>
       </c>
       <c r="D15" t="str">
         <v>Rio de Janeiro</v>
@@ -768,21 +753,24 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F15" t="str">
-        <v>Victoria Ferreira De Lima</v>
+        <v>Robson Cavalini</v>
       </c>
       <c r="G15" t="str">
-        <v>victoria.ferreira@shopbdln.com</v>
+        <v>assistcompras@realdeeden.com.br</v>
       </c>
       <c r="H15" t="str">
-        <v>0 0</v>
+        <v>21 34489350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2319</v>
+        <v>2336</v>
+      </c>
+      <c r="B16" t="str">
+        <v>manual</v>
       </c>
       <c r="C16" t="str">
-        <v>2025-09-24 10:34:56</v>
+        <v>2025-09-25 11:23:32</v>
       </c>
       <c r="D16" t="str">
         <v>Rio de Janeiro</v>
@@ -791,10 +779,10 @@
         <v>Nova Iguaçu</v>
       </c>
       <c r="F16" t="str">
-        <v>Victoria Lima</v>
+        <v>Raphael Leal</v>
       </c>
       <c r="G16" t="str">
-        <v>victoria.ferreira@shopbdln.com</v>
+        <v>lealraphael13@gmail.com</v>
       </c>
       <c r="H16" t="str">
         <v>0 0</v>
@@ -802,48 +790,48 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>2318</v>
+        <v>2335</v>
       </c>
       <c r="C17" t="str">
-        <v>2025-09-24 09:55:46</v>
+        <v>2025-09-25 10:57:57</v>
       </c>
       <c r="D17" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="E17" t="str">
-        <v>Nova Iguaçu</v>
+        <v>Marataízes</v>
       </c>
       <c r="F17" t="str">
-        <v>Victoria Lima</v>
+        <v>Associação Raízes Nea Bc</v>
       </c>
       <c r="G17" t="str">
-        <v>victoria.ferreira@shopbdln.com</v>
+        <v>compras@neabc.org.br</v>
       </c>
       <c r="H17" t="str">
-        <v>0 0</v>
+        <v>22 999561648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2317</v>
+        <v>2332</v>
       </c>
       <c r="B18" t="str">
         <v>manual</v>
       </c>
       <c r="C18" t="str">
-        <v>2025-09-23 15:59:46</v>
+        <v>2025-09-25 10:22:33</v>
       </c>
       <c r="D18" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E18" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Niterói</v>
       </c>
       <c r="F18" t="str">
-        <v>Jennifer De Souza Oliveira</v>
+        <v>Rhaiany Andrade</v>
       </c>
       <c r="G18" t="str">
-        <v>estagiarioadm@veterinariapop.com</v>
+        <v>elite.turismo@hotmail.com</v>
       </c>
       <c r="H18" t="str">
         <v>0 0</v>
@@ -851,13 +839,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>2314</v>
+        <v>2331</v>
       </c>
       <c r="B19" t="str">
         <v>manual</v>
       </c>
       <c r="C19" t="str">
-        <v>2025-09-23 15:02:25</v>
+        <v>2025-09-25 10:06:06</v>
       </c>
       <c r="D19" t="str">
         <v>Rio de Janeiro</v>
@@ -866,62 +854,62 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F19" t="str">
-        <v>Lara Pimentel</v>
+        <v>Fabio Lamar</v>
       </c>
       <c r="G19" t="str">
-        <v>administrativo@rionav.com.br</v>
+        <v>admecommercerj03@cassarottifoods.com.br</v>
       </c>
       <c r="H19" t="str">
-        <v>0 0</v>
+        <v>43 31322477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2313</v>
+        <v>2330</v>
       </c>
       <c r="B20" t="str">
         <v>manual</v>
       </c>
       <c r="C20" t="str">
-        <v>2025-09-23 14:38:07</v>
+        <v>2025-09-25 09:48:05</v>
       </c>
       <c r="D20" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E20" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Duque De Caxias</v>
       </c>
       <c r="F20" t="str">
-        <v>Fabiana Freire</v>
+        <v>Wagner Jorge</v>
       </c>
       <c r="G20" t="str">
-        <v>secretaria@redeccap.org.br</v>
+        <v>wagner.jorge@nitriflex.com.br</v>
       </c>
       <c r="H20" t="str">
-        <v>0 0</v>
+        <v>21 21283465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2312</v>
+        <v>2329</v>
       </c>
       <c r="B21" t="str">
         <v>manual</v>
       </c>
       <c r="C21" t="str">
-        <v>2025-09-23 14:02:16</v>
+        <v>2025-09-25 09:09:02</v>
       </c>
       <c r="D21" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Pará</v>
       </c>
       <c r="E21" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Belém</v>
       </c>
       <c r="F21" t="str">
-        <v>Fabiana Freire</v>
+        <v>Ir Maria Domingas Damasceno Rodrigues</v>
       </c>
       <c r="G21" t="str">
-        <v>secretaria@redeccap.org.br</v>
+        <v>economato.montetabor@sementesdoverbo.org</v>
       </c>
       <c r="H21" t="str">
         <v>0 0</v>
@@ -929,91 +917,82 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>2309</v>
-      </c>
-      <c r="B22" t="str">
-        <v>manual</v>
+        <v>2328</v>
       </c>
       <c r="C22" t="str">
-        <v>2025-09-23 09:52:25</v>
+        <v>2025-09-25 01:21:25</v>
       </c>
       <c r="D22" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E22" t="str">
-        <v>Rio De Janeiro</v>
+        <v>São João de Meriti</v>
       </c>
       <c r="F22" t="str">
-        <v>Fabiana Freire</v>
+        <v>Patrick Perrotte De Lima</v>
       </c>
       <c r="G22" t="str">
-        <v>secretaria@redeccap.org.br</v>
+        <v>patrickperrottetjm@gmail.com</v>
       </c>
       <c r="H22" t="str">
-        <v>0 0</v>
+        <v>21 971965534</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2308</v>
-      </c>
-      <c r="B23" t="str">
-        <v>manual</v>
+        <v>2327</v>
       </c>
       <c r="C23" t="str">
-        <v>2025-09-23 08:43:57</v>
+        <v>2025-09-25 01:06:04</v>
       </c>
       <c r="D23" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E23" t="str">
-        <v>Barra Mansa</v>
+        <v>São João de Meriti</v>
       </c>
       <c r="F23" t="str">
-        <v>Natalie Haasis</v>
+        <v>Patrick Perrotte De Lima</v>
       </c>
       <c r="G23" t="str">
-        <v>brancagarden@hotmail.com</v>
+        <v>patrickperrottetjm@gmail.com</v>
       </c>
       <c r="H23" t="str">
-        <v>0 0</v>
+        <v>21 971965534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2306</v>
-      </c>
-      <c r="B24" t="str">
-        <v>manual</v>
+        <v>2326</v>
       </c>
       <c r="C24" t="str">
-        <v>2025-09-22 11:04:06</v>
+        <v>2025-09-24 19:10:06</v>
       </c>
       <c r="D24" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E24" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F24" t="str">
-        <v>Thiago Carneiro</v>
+        <v>Luiz Araujo</v>
       </c>
       <c r="G24" t="str">
-        <v>compras@gerpol.com.br</v>
+        <v>papaifuguinha@gmail.com</v>
       </c>
       <c r="H24" t="str">
-        <v>21 996237840</v>
+        <v>21 987938741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2305</v>
+        <v>2325</v>
       </c>
       <c r="B25" t="str">
         <v>manual</v>
       </c>
       <c r="C25" t="str">
-        <v>2025-09-19 14:01:30</v>
+        <v>2025-09-24 16:22:43</v>
       </c>
       <c r="D25" t="str">
         <v>Rio de Janeiro</v>
@@ -1022,36 +1001,36 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F25" t="str">
-        <v>Flávio Souza</v>
+        <v>Elaine Marins</v>
       </c>
       <c r="G25" t="str">
-        <v>flavio.souza@lsgskychefs.com</v>
+        <v>compras@alpitelbrasil.com.br</v>
       </c>
       <c r="H25" t="str">
-        <v>21 24586040</v>
+        <v>11 21251454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2304</v>
+        <v>2324</v>
       </c>
       <c r="B26" t="str">
         <v>manual</v>
       </c>
       <c r="C26" t="str">
-        <v>2025-09-19 13:37:44</v>
+        <v>2025-09-24 16:18:57</v>
       </c>
       <c r="D26" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E26" t="str">
-        <v>São Gonçalo</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F26" t="str">
-        <v>Jacqueline Almeida</v>
+        <v>Gisely De Jesus Amâncio</v>
       </c>
       <c r="G26" t="str">
-        <v>jacquelinealmeidaduarte@gmail.com</v>
+        <v>financeiro@ampher.com.br</v>
       </c>
       <c r="H26" t="str">
         <v>0 0</v>
@@ -1059,48 +1038,48 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>2303</v>
+        <v>2320</v>
+      </c>
+      <c r="B27" t="str">
+        <v>manual</v>
       </c>
       <c r="C27" t="str">
-        <v>2025-09-19 10:20:20</v>
+        <v>2025-09-24 10:48:28</v>
       </c>
       <c r="D27" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E27" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F27" t="str">
-        <v>Vix Varejo</v>
+        <v>Victoria Ferreira De Lima</v>
       </c>
       <c r="G27" t="str">
-        <v>compras.consumiveis@vixbrasil.com</v>
+        <v>victoria.ferreira@shopbdln.com</v>
       </c>
       <c r="H27" t="str">
-        <v>21 22357048</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2302</v>
-      </c>
-      <c r="B28" t="str">
-        <v>manual</v>
+        <v>2319</v>
       </c>
       <c r="C28" t="str">
-        <v>2025-09-19 09:48:16</v>
+        <v>2025-09-24 10:34:56</v>
       </c>
       <c r="D28" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E28" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Nova Iguaçu</v>
       </c>
       <c r="F28" t="str">
-        <v>Pamela Gaspar</v>
+        <v>Victoria Lima</v>
       </c>
       <c r="G28" t="str">
-        <v>pamelagaspar@principiasp.com</v>
+        <v>victoria.ferreira@shopbdln.com</v>
       </c>
       <c r="H28" t="str">
         <v>0 0</v>
@@ -1108,48 +1087,48 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>2298</v>
-      </c>
-      <c r="B29" t="str">
-        <v>manual</v>
+        <v>2318</v>
       </c>
       <c r="C29" t="str">
-        <v>2025-09-18 16:37:56</v>
+        <v>2025-09-24 09:55:46</v>
       </c>
       <c r="D29" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E29" t="str">
-        <v>Duque De Caxias</v>
+        <v>Nova Iguaçu</v>
       </c>
       <c r="F29" t="str">
-        <v>Wagner Jorge</v>
+        <v>Victoria Lima</v>
       </c>
       <c r="G29" t="str">
-        <v>wagner.jorge@nitriflex.com.br</v>
+        <v>victoria.ferreira@shopbdln.com</v>
       </c>
       <c r="H29" t="str">
-        <v>21 21283465</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2297</v>
+        <v>2317</v>
+      </c>
+      <c r="B30" t="str">
+        <v>manual</v>
       </c>
       <c r="C30" t="str">
-        <v>2025-09-18 16:06:25</v>
+        <v>2025-09-23 15:59:46</v>
       </c>
       <c r="D30" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E30" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F30" t="str">
-        <v>Sesatech Brasil Tecnologias De Informacao Ltda</v>
+        <v>Jennifer De Souza Oliveira</v>
       </c>
       <c r="G30" t="str">
-        <v>tamires.carneiro@sesatech.com.br</v>
+        <v>estagiarioadm@veterinariapop.com</v>
       </c>
       <c r="H30" t="str">
         <v>0 0</v>
@@ -1157,22 +1136,25 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>2296</v>
+        <v>2314</v>
+      </c>
+      <c r="B31" t="str">
+        <v>manual</v>
       </c>
       <c r="C31" t="str">
-        <v>2025-09-18 15:59:37</v>
+        <v>2025-09-23 15:02:25</v>
       </c>
       <c r="D31" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E31" t="str">
-        <v>São Gonçalo</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F31" t="str">
-        <v>Jacqueline Almeida</v>
+        <v>Lara Pimentel</v>
       </c>
       <c r="G31" t="str">
-        <v>jacquelinealmeidaduarte@gmail.com</v>
+        <v>administrativo@rionav.com.br</v>
       </c>
       <c r="H31" t="str">
         <v>0 0</v>
@@ -1180,25 +1162,25 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>2294</v>
+        <v>2313</v>
       </c>
       <c r="B32" t="str">
         <v>manual</v>
       </c>
       <c r="C32" t="str">
-        <v>2025-09-18 14:45:32</v>
+        <v>2025-09-23 14:38:07</v>
       </c>
       <c r="D32" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E32" t="str">
-        <v>Nova Iguaçu</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F32" t="str">
-        <v>Victoria Lima</v>
+        <v>Fabiana Freire</v>
       </c>
       <c r="G32" t="str">
-        <v>victoria.ferreira@shopbdln.com</v>
+        <v>secretaria@redeccap.org.br</v>
       </c>
       <c r="H32" t="str">
         <v>0 0</v>
@@ -1206,25 +1188,25 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>2290</v>
+        <v>2312</v>
       </c>
       <c r="B33" t="str">
         <v>manual</v>
       </c>
       <c r="C33" t="str">
-        <v>2025-09-17 17:05:21</v>
+        <v>2025-09-23 14:02:16</v>
       </c>
       <c r="D33" t="str">
-        <v>Espírito Santo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E33" t="str">
-        <v>Guarapari</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F33" t="str">
-        <v>Beatriz Brumana Sant</v>
+        <v>Fabiana Freire</v>
       </c>
       <c r="G33" t="str">
-        <v>boutiquedebrinquedos@gmail.com</v>
+        <v>secretaria@redeccap.org.br</v>
       </c>
       <c r="H33" t="str">
         <v>0 0</v>
@@ -1232,85 +1214,91 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2288</v>
+        <v>2309</v>
       </c>
       <c r="B34" t="str">
         <v>manual</v>
       </c>
       <c r="C34" t="str">
-        <v>2025-09-17 16:04:10</v>
+        <v>2025-09-23 09:52:25</v>
       </c>
       <c r="D34" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E34" t="str">
-        <v>Japeri</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F34" t="str">
-        <v>Fernanda Lúcia</v>
+        <v>Fabiana Freire</v>
       </c>
       <c r="G34" t="str">
-        <v>fernanda@araujomotta.com.br</v>
+        <v>secretaria@redeccap.org.br</v>
       </c>
       <c r="H34" t="str">
-        <v>21 26644183</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2283</v>
+        <v>2308</v>
+      </c>
+      <c r="B35" t="str">
+        <v>manual</v>
       </c>
       <c r="C35" t="str">
-        <v>2025-09-17 11:06:29</v>
+        <v>2025-09-23 08:43:57</v>
       </c>
       <c r="D35" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E35" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Barra Mansa</v>
       </c>
       <c r="F35" t="str">
-        <v>Walter Kassinow</v>
+        <v>Natalie Haasis</v>
       </c>
       <c r="G35" t="str">
-        <v>administrativo@alvesribeiro.eng.br</v>
+        <v>brancagarden@hotmail.com</v>
       </c>
       <c r="H35" t="str">
-        <v>21 21465061</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2281</v>
+        <v>2306</v>
+      </c>
+      <c r="B36" t="str">
+        <v>manual</v>
       </c>
       <c r="C36" t="str">
-        <v>2025-09-16 18:25:06</v>
+        <v>2025-09-22 11:04:06</v>
       </c>
       <c r="D36" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E36" t="str">
-        <v>São Gonçalo</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F36" t="str">
-        <v>Shirley Casado</v>
+        <v>Thiago Carneiro</v>
       </c>
       <c r="G36" t="str">
-        <v>dilpasseri@gmail.com</v>
+        <v>compras@gerpol.com.br</v>
       </c>
       <c r="H36" t="str">
-        <v>21 988403249</v>
+        <v>21 996237840</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2278</v>
+        <v>2305</v>
       </c>
       <c r="B37" t="str">
         <v>manual</v>
       </c>
       <c r="C37" t="str">
-        <v>2025-09-16 15:24:25</v>
+        <v>2025-09-19 14:01:30</v>
       </c>
       <c r="D37" t="str">
         <v>Rio de Janeiro</v>
@@ -1319,76 +1307,73 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F37" t="str">
-        <v>Ana Nascimento</v>
+        <v>Flávio Souza</v>
       </c>
       <c r="G37" t="str">
-        <v>administracao@norteprivilege.com.br</v>
+        <v>flavio.souza@lsgskychefs.com</v>
       </c>
       <c r="H37" t="str">
-        <v>0 0</v>
+        <v>21 24586040</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2277</v>
+        <v>2304</v>
       </c>
       <c r="B38" t="str">
         <v>manual</v>
       </c>
       <c r="C38" t="str">
-        <v>2025-09-16 15:11:34</v>
+        <v>2025-09-19 13:37:44</v>
       </c>
       <c r="D38" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E38" t="str">
-        <v>Rio De Janeiro</v>
+        <v>São Gonçalo</v>
       </c>
       <c r="F38" t="str">
-        <v>Ytalo Telles</v>
+        <v>Jacqueline Almeida</v>
       </c>
       <c r="G38" t="str">
-        <v>ytalo@getlock.com.br</v>
+        <v>jacquelinealmeidaduarte@gmail.com</v>
       </c>
       <c r="H38" t="str">
-        <v>21 24809008</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2276</v>
-      </c>
-      <c r="B39" t="str">
-        <v>manual</v>
+        <v>2303</v>
       </c>
       <c r="C39" t="str">
-        <v>2025-09-16 14:45:34</v>
+        <v>2025-09-19 10:20:20</v>
       </c>
       <c r="D39" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E39" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F39" t="str">
-        <v>Elaine Silva</v>
+        <v>Vix Varejo</v>
       </c>
       <c r="G39" t="str">
-        <v>compras@reebokclub.com.br</v>
+        <v>compras.consumiveis@vixbrasil.com</v>
       </c>
       <c r="H39" t="str">
-        <v>11 37597878</v>
+        <v>21 22357048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2272</v>
+        <v>2302</v>
       </c>
       <c r="B40" t="str">
         <v>manual</v>
       </c>
       <c r="C40" t="str">
-        <v>2025-09-16 08:51:38</v>
+        <v>2025-09-19 09:48:16</v>
       </c>
       <c r="D40" t="str">
         <v>Rio de Janeiro</v>
@@ -1397,10 +1382,10 @@
         <v>Rio De Janeiro</v>
       </c>
       <c r="F40" t="str">
-        <v>Renata Almeida</v>
+        <v>Pamela Gaspar</v>
       </c>
       <c r="G40" t="str">
-        <v>financeiro@scafom-rux.com</v>
+        <v>pamelagaspar@principiasp.com</v>
       </c>
       <c r="H40" t="str">
         <v>0 0</v>
@@ -1408,71 +1393,71 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>2271</v>
+        <v>2298</v>
+      </c>
+      <c r="B41" t="str">
+        <v>manual</v>
       </c>
       <c r="C41" t="str">
-        <v>2025-09-16 08:13:52</v>
+        <v>2025-09-18 16:37:56</v>
       </c>
       <c r="D41" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E41" t="str">
-        <v>Japeri</v>
+        <v>Duque De Caxias</v>
       </c>
       <c r="F41" t="str">
-        <v>Andreia Araujo</v>
+        <v>Wagner Jorge</v>
       </c>
       <c r="G41" t="str">
-        <v>andreia@laminadosjaperi.com.br</v>
+        <v>wagner.jorge@nitriflex.com.br</v>
       </c>
       <c r="H41" t="str">
-        <v>21 26647839</v>
+        <v>21 21283465</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2268</v>
+        <v>2297</v>
       </c>
       <c r="C42" t="str">
-        <v>2025-09-15 14:11:07</v>
+        <v>2025-09-18 16:06:25</v>
       </c>
       <c r="D42" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E42" t="str">
-        <v>Nova Friburgo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F42" t="str">
-        <v>Tuti Fruti</v>
+        <v>Sesatech Brasil Tecnologias De Informacao Ltda</v>
       </c>
       <c r="G42" t="str">
-        <v>friburgo.fiscal@tutifruti.com.br</v>
+        <v>tamires.carneiro@sesatech.com.br</v>
       </c>
       <c r="H42" t="str">
-        <v>22 25231680</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2267</v>
-      </c>
-      <c r="B43" t="str">
-        <v>manual</v>
+        <v>2296</v>
       </c>
       <c r="C43" t="str">
-        <v>2025-09-15 14:01:27</v>
+        <v>2025-09-18 15:59:37</v>
       </c>
       <c r="D43" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E43" t="str">
-        <v>Duque De Caxias</v>
+        <v>São Gonçalo</v>
       </c>
       <c r="F43" t="str">
-        <v>Renata Almeida</v>
+        <v>Jacqueline Almeida</v>
       </c>
       <c r="G43" t="str">
-        <v>financeiro@scafom-rux.com</v>
+        <v>jacquelinealmeidaduarte@gmail.com</v>
       </c>
       <c r="H43" t="str">
         <v>0 0</v>
@@ -1480,270 +1465,273 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>2266</v>
+        <v>2294</v>
       </c>
       <c r="B44" t="str">
         <v>manual</v>
       </c>
       <c r="C44" t="str">
-        <v>2025-09-15 11:23:51</v>
+        <v>2025-09-18 14:45:32</v>
       </c>
       <c r="D44" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E44" t="str">
-        <v>Cabo Frio</v>
+        <v>Nova Iguaçu</v>
       </c>
       <c r="F44" t="str">
-        <v>Laryssa Ferreira</v>
+        <v>Victoria Lima</v>
       </c>
       <c r="G44" t="str">
-        <v>laryssamedeiros391@gmail.com</v>
+        <v>victoria.ferreira@shopbdln.com</v>
       </c>
       <c r="H44" t="str">
-        <v>22 20401913</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2265</v>
+        <v>2290</v>
+      </c>
+      <c r="B45" t="str">
+        <v>manual</v>
       </c>
       <c r="C45" t="str">
-        <v>2025-09-15 10:57:30</v>
+        <v>2025-09-17 17:05:21</v>
       </c>
       <c r="D45" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="E45" t="str">
-        <v>São Gonçalo</v>
+        <v>Guarapari</v>
       </c>
       <c r="F45" t="str">
-        <v>Maria Juliana</v>
+        <v>Beatriz Brumana Sant</v>
       </c>
       <c r="G45" t="str">
-        <v>contato@nautiquesolutions.com</v>
+        <v>boutiquedebrinquedos@gmail.com</v>
       </c>
       <c r="H45" t="str">
-        <v>21 35872606</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2263</v>
+        <v>2288</v>
+      </c>
+      <c r="B46" t="str">
+        <v>manual</v>
       </c>
       <c r="C46" t="str">
-        <v>2025-09-15 10:47:32</v>
+        <v>2025-09-17 16:04:10</v>
       </c>
       <c r="D46" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E46" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Japeri</v>
       </c>
       <c r="F46" t="str">
-        <v>Fundação Coppetec</v>
+        <v>Fernanda Lúcia</v>
       </c>
       <c r="G46" t="str">
-        <v>compras.gesup@coppetec.ufrj.br</v>
+        <v>fernanda@araujomotta.com.br</v>
       </c>
       <c r="H46" t="str">
-        <v>21 36223461</v>
+        <v>21 26644183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2262</v>
-      </c>
-      <c r="B47" t="str">
-        <v>manual</v>
+        <v>2283</v>
       </c>
       <c r="C47" t="str">
-        <v>2025-09-15 09:23:10</v>
+        <v>2025-09-17 11:06:29</v>
       </c>
       <c r="D47" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E47" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F47" t="str">
-        <v>Idimael Anastácio</v>
+        <v>Walter Kassinow</v>
       </c>
       <c r="G47" t="str">
-        <v>2rj.comprasconstrucoes@gmail.com</v>
+        <v>administrativo@alvesribeiro.eng.br</v>
       </c>
       <c r="H47" t="str">
-        <v>21 35846081</v>
+        <v>21 21465061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>2261</v>
-      </c>
-      <c r="B48" t="str">
-        <v>manual</v>
+        <v>2281</v>
       </c>
       <c r="C48" t="str">
-        <v>2025-09-15 09:03:52</v>
+        <v>2025-09-16 18:25:06</v>
       </c>
       <c r="D48" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E48" t="str">
-        <v>Duque De Caxias</v>
+        <v>São Gonçalo</v>
       </c>
       <c r="F48" t="str">
-        <v>Renata Almeida</v>
+        <v>Shirley Casado</v>
       </c>
       <c r="G48" t="str">
-        <v>financeiro@scafom-rux.com</v>
+        <v>dilpasseri@gmail.com</v>
       </c>
       <c r="H48" t="str">
-        <v>0 0</v>
+        <v>21 988403249</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2260</v>
+        <v>2278</v>
+      </c>
+      <c r="B49" t="str">
+        <v>manual</v>
       </c>
       <c r="C49" t="str">
-        <v>2025-09-14 15:27:47</v>
+        <v>2025-09-16 15:24:25</v>
       </c>
       <c r="D49" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E49" t="str">
-        <v>Duque de Caxias</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F49" t="str">
-        <v>Fibo Company</v>
+        <v>Ana Nascimento</v>
       </c>
       <c r="G49" t="str">
-        <v>fibogroupservicos@gmail.com</v>
+        <v>administracao@norteprivilege.com.br</v>
       </c>
       <c r="H49" t="str">
-        <v>21 998155501</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2259</v>
+        <v>2277</v>
+      </c>
+      <c r="B50" t="str">
+        <v>manual</v>
       </c>
       <c r="C50" t="str">
-        <v>2025-09-13 02:08:42</v>
+        <v>2025-09-16 15:11:34</v>
       </c>
       <c r="D50" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E50" t="str">
-        <v>Duque de Caxias</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F50" t="str">
-        <v>Jose Nilton Rodrigues Barreira</v>
+        <v>Ytalo Telles</v>
       </c>
       <c r="G50" t="str">
-        <v>barbararvl2008@hotmail.com</v>
+        <v>ytalo@getlock.com.br</v>
       </c>
       <c r="H50" t="str">
-        <v>21 997512297</v>
+        <v>21 24809008</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2255</v>
+        <v>2276</v>
       </c>
       <c r="B51" t="str">
         <v>manual</v>
       </c>
       <c r="C51" t="str">
-        <v>2025-09-12 14:27:07</v>
+        <v>2025-09-16 14:45:34</v>
       </c>
       <c r="D51" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E51" t="str">
-        <v>Rio De Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="F51" t="str">
-        <v>Carlos Alves</v>
+        <v>Elaine Silva</v>
       </c>
       <c r="G51" t="str">
-        <v>compras@controllab.com</v>
+        <v>compras@reebokclub.com.br</v>
       </c>
       <c r="H51" t="str">
-        <v>0 0</v>
+        <v>11 37597878</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2254</v>
-      </c>
-      <c r="B52" t="str">
-        <v>manual</v>
+        <v>2271</v>
       </c>
       <c r="C52" t="str">
-        <v>2025-09-12 13:45:44</v>
+        <v>2025-09-16 08:13:52</v>
       </c>
       <c r="D52" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E52" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Japeri</v>
       </c>
       <c r="F52" t="str">
-        <v>Anderson Da Silva</v>
+        <v>Andreia Araujo</v>
       </c>
       <c r="G52" t="str">
-        <v>mrcsfere@gmail.com</v>
+        <v>andreia@laminadosjaperi.com.br</v>
       </c>
       <c r="H52" t="str">
-        <v>0 0</v>
+        <v>21 26647839</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2249</v>
+        <v>2268</v>
       </c>
       <c r="C53" t="str">
-        <v>2025-09-11 15:44:03</v>
+        <v>2025-09-15 14:11:07</v>
       </c>
       <c r="D53" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E53" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Nova Friburgo</v>
       </c>
       <c r="F53" t="str">
-        <v>Jeferson Batista</v>
+        <v>Tuti Fruti</v>
       </c>
       <c r="G53" t="str">
-        <v>silsgcompras.impp@gmail.com</v>
+        <v>friburgo.fiscal@tutifruti.com.br</v>
       </c>
       <c r="H53" t="str">
-        <v>21 25423049</v>
+        <v>22 25231680</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2248</v>
+        <v>2267</v>
       </c>
       <c r="B54" t="str">
         <v>manual</v>
       </c>
       <c r="C54" t="str">
-        <v>2025-09-11 13:47:54</v>
+        <v>2025-09-15 14:01:27</v>
       </c>
       <c r="D54" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E54" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Duque De Caxias</v>
       </c>
       <c r="F54" t="str">
-        <v>Thays Lima</v>
+        <v>Renata Almeida</v>
       </c>
       <c r="G54" t="str">
-        <v>admexecutservicos@outlook.com</v>
+        <v>financeiro@scafom-rux.com</v>
       </c>
       <c r="H54" t="str">
         <v>0 0</v>
@@ -1751,313 +1739,319 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>2239</v>
+        <v>2266</v>
       </c>
       <c r="B55" t="str">
         <v>manual</v>
       </c>
       <c r="C55" t="str">
-        <v>2025-09-10 11:27:45</v>
+        <v>2025-09-15 11:23:51</v>
       </c>
       <c r="D55" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E55" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Cabo Frio</v>
       </c>
       <c r="F55" t="str">
-        <v>Élida Silva</v>
+        <v>Laryssa Ferreira</v>
       </c>
       <c r="G55" t="str">
-        <v>elida.andrade@laresaude.com.br</v>
+        <v>laryssamedeiros391@gmail.com</v>
       </c>
       <c r="H55" t="str">
-        <v>0 0</v>
+        <v>22 20401913</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2236</v>
+        <v>2265</v>
       </c>
       <c r="C56" t="str">
-        <v>2025-09-09 15:56:30</v>
+        <v>2025-09-15 10:57:30</v>
       </c>
       <c r="D56" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E56" t="str">
-        <v>Duque de Caxias</v>
+        <v>São Gonçalo</v>
       </c>
       <c r="F56" t="str">
-        <v>Ariellen Compradora</v>
+        <v>Maria Juliana</v>
       </c>
       <c r="G56" t="str">
-        <v>financeironewbox@gmail.com</v>
+        <v>contato@nautiquesolutions.com</v>
       </c>
       <c r="H56" t="str">
-        <v>0 0</v>
+        <v>21 35872606</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2231</v>
+        <v>2263</v>
       </c>
       <c r="C57" t="str">
-        <v>2025-09-09 10:47:03</v>
+        <v>2025-09-15 10:47:32</v>
       </c>
       <c r="D57" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E57" t="str">
-        <v>São João de Meriti</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F57" t="str">
-        <v>Douglas Lima</v>
+        <v>Fundação Coppetec</v>
       </c>
       <c r="G57" t="str">
-        <v>granderio@espacorubronegro.com.br</v>
+        <v>compras.gesup@coppetec.ufrj.br</v>
       </c>
       <c r="H57" t="str">
-        <v>21 37571413</v>
+        <v>21 36223461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2226</v>
+        <v>2262</v>
       </c>
       <c r="B58" t="str">
         <v>manual</v>
       </c>
       <c r="C58" t="str">
-        <v>2025-09-08 14:37:20</v>
+        <v>2025-09-15 09:23:10</v>
       </c>
       <c r="D58" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E58" t="str">
-        <v>São Bernardo Do Campo</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F58" t="str">
-        <v>Maria Yasmym</v>
+        <v>Idimael Anastácio</v>
       </c>
       <c r="G58" t="str">
-        <v>suprimentos@move3.com.br</v>
+        <v>2rj.comprasconstrucoes@gmail.com</v>
       </c>
       <c r="H58" t="str">
-        <v>0 0</v>
+        <v>21 35846081</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2222</v>
+        <v>2261</v>
+      </c>
+      <c r="B59" t="str">
+        <v>manual</v>
       </c>
       <c r="C59" t="str">
-        <v>2025-09-08 08:03:30</v>
+        <v>2025-09-15 09:03:52</v>
       </c>
       <c r="D59" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E59" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Duque De Caxias</v>
       </c>
       <c r="F59" t="str">
-        <v>Gabriel Nunes</v>
+        <v>Renata Almeida</v>
       </c>
       <c r="G59" t="str">
-        <v>ganesg.cn@gmail.com</v>
+        <v>financeiro@scafom-rux.com</v>
       </c>
       <c r="H59" t="str">
-        <v>21 987435990</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2215</v>
+        <v>2260</v>
       </c>
       <c r="C60" t="str">
-        <v>2025-09-06 11:50:55</v>
+        <v>2025-09-14 15:27:47</v>
       </c>
       <c r="D60" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E60" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Duque de Caxias</v>
       </c>
       <c r="F60" t="str">
-        <v>Robson  De Santanna Robson De Santanna</v>
+        <v>Fibo Company</v>
       </c>
       <c r="G60" t="str">
-        <v>helainecmvsantanna@hotmail.com</v>
+        <v>fibogroupservicos@gmail.com</v>
       </c>
       <c r="H60" t="str">
-        <v>0 0</v>
+        <v>21 998155501</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2214</v>
+        <v>2259</v>
       </c>
       <c r="C61" t="str">
-        <v>2025-09-05 19:38:34</v>
+        <v>2025-09-13 02:08:42</v>
       </c>
       <c r="D61" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E61" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Duque de Caxias</v>
       </c>
       <c r="F61" t="str">
-        <v>Robson  De Santanna Robson De Santanna</v>
+        <v>Jose Nilton Rodrigues Barreira</v>
       </c>
       <c r="G61" t="str">
-        <v>helainecmvsantanna@hotmail.com</v>
+        <v>barbararvl2008@hotmail.com</v>
       </c>
       <c r="H61" t="str">
-        <v>0 0</v>
+        <v>21 997512297</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2206</v>
+        <v>2255</v>
+      </c>
+      <c r="B62" t="str">
+        <v>manual</v>
       </c>
       <c r="C62" t="str">
-        <v>2025-09-05 07:02:52</v>
+        <v>2025-09-12 14:27:07</v>
       </c>
       <c r="D62" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E62" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F62" t="str">
-        <v>Matheus Azevedo</v>
+        <v>Carlos Alves</v>
       </c>
       <c r="G62" t="str">
-        <v>azevedomattos.arsenal@hotmail.com</v>
+        <v>compras@controllab.com</v>
       </c>
       <c r="H62" t="str">
-        <v>21 970010551</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2205</v>
+        <v>2254</v>
+      </c>
+      <c r="B63" t="str">
+        <v>manual</v>
       </c>
       <c r="C63" t="str">
-        <v>2025-09-05 00:04:31</v>
+        <v>2025-09-12 13:45:44</v>
       </c>
       <c r="D63" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E63" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F63" t="str">
-        <v>Karla Melo</v>
+        <v>Anderson Da Silva</v>
       </c>
       <c r="G63" t="str">
-        <v>karlanycolle56@gmail.com</v>
+        <v>mrcsfere@gmail.com</v>
       </c>
       <c r="H63" t="str">
-        <v>21 981465633</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2204</v>
-      </c>
-      <c r="B64" t="str">
-        <v>manual</v>
+        <v>2249</v>
       </c>
       <c r="C64" t="str">
-        <v>2025-09-04 17:20:40</v>
+        <v>2025-09-11 15:44:03</v>
       </c>
       <c r="D64" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E64" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F64" t="str">
-        <v>Fabio Lamar</v>
+        <v>Jeferson Batista</v>
       </c>
       <c r="G64" t="str">
-        <v>admecommercerj03@cassarottifoods.com.br</v>
+        <v>silsgcompras.impp@gmail.com</v>
       </c>
       <c r="H64" t="str">
-        <v>43 31322477</v>
+        <v>21 25423049</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2200</v>
+        <v>2248</v>
+      </c>
+      <c r="B65" t="str">
+        <v>manual</v>
       </c>
       <c r="C65" t="str">
-        <v>2025-09-04 15:31:49</v>
+        <v>2025-09-11 13:47:54</v>
       </c>
       <c r="D65" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E65" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F65" t="str">
-        <v>Mello E Castro Gerenciamento</v>
+        <v>Thays Lima</v>
       </c>
       <c r="G65" t="str">
-        <v>comercial@melloecastro.com</v>
+        <v>admexecutservicos@outlook.com</v>
       </c>
       <c r="H65" t="str">
-        <v>21 26965627</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2191</v>
+        <v>2239</v>
       </c>
       <c r="B66" t="str">
         <v>manual</v>
       </c>
       <c r="C66" t="str">
-        <v>2025-09-04 11:32:08</v>
+        <v>2025-09-10 11:27:45</v>
       </c>
       <c r="D66" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E66" t="str">
-        <v>Cabreúva</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F66" t="str">
-        <v>Thalia Almeida</v>
+        <v>Élida Silva</v>
       </c>
       <c r="G66" t="str">
-        <v>faturamento@multibor.com.br</v>
+        <v>elida.andrade@laresaude.com.br</v>
       </c>
       <c r="H66" t="str">
-        <v>11 44090300</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2187</v>
-      </c>
-      <c r="B67" t="str">
-        <v>manual</v>
+        <v>2236</v>
       </c>
       <c r="C67" t="str">
-        <v>2025-09-03 16:44:02</v>
+        <v>2025-09-09 15:56:30</v>
       </c>
       <c r="D67" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E67" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Duque de Caxias</v>
       </c>
       <c r="F67" t="str">
-        <v>Saulo Da Rós</v>
+        <v>Ariellen Compradora</v>
       </c>
       <c r="G67" t="str">
-        <v>atendimento.paulista@coworkingsmart.com.br</v>
+        <v>financeironewbox@gmail.com</v>
       </c>
       <c r="H67" t="str">
         <v>0 0</v>
@@ -2065,59 +2059,59 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>2176</v>
+        <v>2231</v>
       </c>
       <c r="C68" t="str">
-        <v>2025-09-02 10:48:00</v>
+        <v>2025-09-09 10:47:03</v>
       </c>
       <c r="D68" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E68" t="str">
-        <v>São Gonçalo</v>
+        <v>São João de Meriti</v>
       </c>
       <c r="F68" t="str">
-        <v>Cia Do Doce</v>
+        <v>Douglas Lima</v>
       </c>
       <c r="G68" t="str">
-        <v>alcantara.compras@ciadodoce.com.br</v>
+        <v>granderio@espacorubronegro.com.br</v>
       </c>
       <c r="H68" t="str">
-        <v>21 96928310</v>
+        <v>21 37571413</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2170</v>
+        <v>2226</v>
       </c>
       <c r="B69" t="str">
-        <v/>
+        <v>manual</v>
       </c>
       <c r="C69" t="str">
-        <v>2025-09-01 17:19:41</v>
+        <v>2025-09-08 14:37:20</v>
       </c>
       <c r="D69" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E69" t="str">
-        <v>Belford Roxo</v>
+        <v>São Bernardo Do Campo</v>
       </c>
       <c r="F69" t="str">
-        <v>Adão Emidio Vieira Neto</v>
+        <v>Maria Yasmym</v>
       </c>
       <c r="G69" t="str">
-        <v>adaoemidio@gmail.com</v>
+        <v>suprimentos@move3.com.br</v>
       </c>
       <c r="H69" t="str">
-        <v>21 998759176</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>2158</v>
+        <v>2222</v>
       </c>
       <c r="C70" t="str">
-        <v>2025-08-31 00:15:55</v>
+        <v>2025-09-08 08:03:30</v>
       </c>
       <c r="D70" t="str">
         <v>Rio de Janeiro</v>
@@ -2126,21 +2120,21 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F70" t="str">
-        <v>Maria Eduarda Maia Barroso</v>
+        <v>Gabriel Nunes</v>
       </c>
       <c r="G70" t="str">
-        <v>mariaeduardamaiabarroso@hotmail.com</v>
+        <v>ganesg.cn@gmail.com</v>
       </c>
       <c r="H70" t="str">
-        <v>21 959325052</v>
+        <v>21 987435990</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2148</v>
+        <v>2215</v>
       </c>
       <c r="C71" t="str">
-        <v>2025-08-28 18:00:00</v>
+        <v>2025-09-06 11:50:55</v>
       </c>
       <c r="D71" t="str">
         <v>Rio de Janeiro</v>
@@ -2149,113 +2143,116 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F71" t="str">
-        <v>Nextgen Labs</v>
+        <v>Robson  De Santanna Robson De Santanna</v>
       </c>
       <c r="G71" t="str">
-        <v>compras@naturativa.com.br</v>
+        <v>helainecmvsantanna@hotmail.com</v>
       </c>
       <c r="H71" t="str">
-        <v>21 21020201</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2142</v>
+        <v>2214</v>
       </c>
       <c r="C72" t="str">
-        <v>2025-08-28 13:44:30</v>
+        <v>2025-09-05 19:38:34</v>
       </c>
       <c r="D72" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E72" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F72" t="str">
-        <v>Aline Conte</v>
+        <v>Robson  De Santanna Robson De Santanna</v>
       </c>
       <c r="G72" t="str">
-        <v>aline_conte85@yahoo.com.br</v>
+        <v>helainecmvsantanna@hotmail.com</v>
       </c>
       <c r="H72" t="str">
-        <v>11 959091040</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>2133</v>
+        <v>2206</v>
       </c>
       <c r="C73" t="str">
-        <v>2025-08-27 15:04:56</v>
+        <v>2025-09-05 07:02:52</v>
       </c>
       <c r="D73" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E73" t="str">
-        <v>Campos dos Goytacazes</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F73" t="str">
-        <v>Victor Hugo Gomes</v>
+        <v>Matheus Azevedo</v>
       </c>
       <c r="G73" t="str">
-        <v>compras@sscempresarial.com.br</v>
+        <v>azevedomattos.arsenal@hotmail.com</v>
       </c>
       <c r="H73" t="str">
-        <v>22 30110011</v>
+        <v>21 970010551</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2131</v>
+        <v>2205</v>
       </c>
       <c r="C74" t="str">
-        <v>2025-08-27 15:00:29</v>
+        <v>2025-09-05 00:04:31</v>
       </c>
       <c r="D74" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E74" t="str">
-        <v>Campos dos Goytacazes</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F74" t="str">
-        <v>Victor Hugo Gomes</v>
+        <v>Karla Melo</v>
       </c>
       <c r="G74" t="str">
-        <v>compras@sscempresarial.com.br</v>
+        <v>karlanycolle56@gmail.com</v>
       </c>
       <c r="H74" t="str">
-        <v>22 30110011</v>
+        <v>21 981465633</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>2117</v>
+        <v>2204</v>
+      </c>
+      <c r="B75" t="str">
+        <v>manual</v>
       </c>
       <c r="C75" t="str">
-        <v>2025-08-25 16:24:58</v>
+        <v>2025-09-04 17:20:40</v>
       </c>
       <c r="D75" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E75" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F75" t="str">
-        <v>Raquel Rufino</v>
+        <v>Fabio Lamar</v>
       </c>
       <c r="G75" t="str">
-        <v>assistente@portobrasilis.com.br</v>
+        <v>admecommercerj03@cassarottifoods.com.br</v>
       </c>
       <c r="H75" t="str">
-        <v>21 974023345</v>
+        <v>43 31322477</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>2113</v>
+        <v>2200</v>
       </c>
       <c r="C76" t="str">
-        <v>2025-08-25 14:05:41</v>
+        <v>2025-09-04 15:31:49</v>
       </c>
       <c r="D76" t="str">
         <v>Rio de Janeiro</v>
@@ -2264,228 +2261,237 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F76" t="str">
-        <v>Fernando Souto</v>
+        <v>Mello E Castro Gerenciamento</v>
       </c>
       <c r="G76" t="str">
-        <v>fernando@nortondistribuidora.com.br</v>
+        <v>comercial@melloecastro.com</v>
       </c>
       <c r="H76" t="str">
-        <v>21 970769075</v>
+        <v>21 26965627</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2109</v>
+        <v>2191</v>
+      </c>
+      <c r="B77" t="str">
+        <v>manual</v>
       </c>
       <c r="C77" t="str">
-        <v>2025-08-25 10:37:48</v>
+        <v>2025-09-04 11:32:08</v>
       </c>
       <c r="D77" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E77" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Cabreúva</v>
       </c>
       <c r="F77" t="str">
-        <v>Aline Gurgel</v>
+        <v>Thalia Almeida</v>
       </c>
       <c r="G77" t="str">
-        <v>opsgig@crossracer.com.br</v>
+        <v>faturamento@multibor.com.br</v>
       </c>
       <c r="H77" t="str">
-        <v>21 984362006</v>
+        <v>11 44090300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2104</v>
+        <v>2187</v>
+      </c>
+      <c r="B78" t="str">
+        <v>manual</v>
       </c>
       <c r="C78" t="str">
-        <v>2025-08-24 15:43:58</v>
+        <v>2025-09-03 16:44:02</v>
       </c>
       <c r="D78" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E78" t="str">
-        <v>São Paulo</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F78" t="str">
-        <v>Leonir Lopes</v>
+        <v>Saulo Da Rós</v>
       </c>
       <c r="G78" t="str">
-        <v>lopesleonir@gmail.com</v>
+        <v>atendimento.paulista@coworkingsmart.com.br</v>
       </c>
       <c r="H78" t="str">
-        <v>11 974497772</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2085</v>
+        <v>2176</v>
       </c>
       <c r="C79" t="str">
-        <v>2025-08-20 14:44:01</v>
+        <v>2025-09-02 10:48:00</v>
       </c>
       <c r="D79" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E79" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Gonçalo</v>
       </c>
       <c r="F79" t="str">
-        <v>Christiano Araujo</v>
+        <v>Cia Do Doce</v>
       </c>
       <c r="G79" t="str">
-        <v>administrativo@bfctransportes.com.br</v>
+        <v>alcantara.compras@ciadodoce.com.br</v>
       </c>
       <c r="H79" t="str">
-        <v>21 992144707</v>
+        <v>21 96928310</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>2066</v>
+        <v>2170</v>
+      </c>
+      <c r="B80" t="str">
+        <v/>
       </c>
       <c r="C80" t="str">
-        <v>2025-08-14 23:10:49</v>
+        <v>2025-09-01 17:19:41</v>
       </c>
       <c r="D80" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E80" t="str">
-        <v>São Paulo</v>
+        <v>Belford Roxo</v>
       </c>
       <c r="F80" t="str">
-        <v>Felipe Campos Bortoncello</v>
+        <v>Adão Emidio Vieira Neto</v>
       </c>
       <c r="G80" t="str">
-        <v>felipecamposcuso@gmail.com</v>
+        <v>adaoemidio@gmail.com</v>
       </c>
       <c r="H80" t="str">
-        <v>11 932894433</v>
+        <v>21 998759176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2040</v>
+        <v>2158</v>
       </c>
       <c r="C81" t="str">
-        <v>2025-08-11 16:03:47</v>
+        <v>2025-08-31 00:15:55</v>
       </c>
       <c r="D81" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E81" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F81" t="str">
-        <v>Marlon Alexandre De Souza Witt</v>
+        <v>Maria Eduarda Maia Barroso</v>
       </c>
       <c r="G81" t="str">
-        <v>compras@witt.adv.br</v>
+        <v>mariaeduardamaiabarroso@hotmail.com</v>
       </c>
       <c r="H81" t="str">
-        <v>41 992680874</v>
+        <v>21 959325052</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2033</v>
+        <v>2148</v>
       </c>
       <c r="C82" t="str">
-        <v>2025-08-11 14:09:05</v>
+        <v>2025-08-28 18:00:00</v>
       </c>
       <c r="D82" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E82" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F82" t="str">
-        <v>Marlon Alexandre De Souza Witt</v>
+        <v>Nextgen Labs</v>
       </c>
       <c r="G82" t="str">
-        <v>compras@witt.adv.br</v>
+        <v>compras@naturativa.com.br</v>
       </c>
       <c r="H82" t="str">
-        <v>41 992680874</v>
+        <v>21 21020201</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2028</v>
+        <v>2142</v>
       </c>
       <c r="C83" t="str">
-        <v>2025-08-10 15:21:36</v>
+        <v>2025-08-28 13:44:30</v>
       </c>
       <c r="D83" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E83" t="str">
-        <v>Macaé</v>
+        <v>São Paulo</v>
       </c>
       <c r="F83" t="str">
-        <v>Gabriel Barcelos</v>
+        <v>Aline Conte</v>
       </c>
       <c r="G83" t="str">
-        <v>gabrielrrbarcelos@gmail.com</v>
+        <v>aline_conte85@yahoo.com.br</v>
       </c>
       <c r="H83" t="str">
-        <v>22 981442005</v>
+        <v>11 959091040</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2022</v>
+        <v>2133</v>
       </c>
       <c r="C84" t="str">
-        <v>2025-08-08 13:22:50</v>
+        <v>2025-08-27 15:04:56</v>
       </c>
       <c r="D84" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E84" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Campos dos Goytacazes</v>
       </c>
       <c r="F84" t="str">
-        <v>Álamo Benefícios</v>
+        <v>Victor Hugo Gomes</v>
       </c>
       <c r="G84" t="str">
-        <v>administrativo@alamobeneficios.org.br</v>
+        <v>compras@sscempresarial.com.br</v>
       </c>
       <c r="H84" t="str">
-        <v>0 0</v>
+        <v>22 30110011</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>2016</v>
+        <v>2131</v>
       </c>
       <c r="C85" t="str">
-        <v>2025-08-08 10:24:36</v>
+        <v>2025-08-27 15:00:29</v>
       </c>
       <c r="D85" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E85" t="str">
-        <v>Mesquita</v>
+        <v>Campos dos Goytacazes</v>
       </c>
       <c r="F85" t="str">
-        <v>Tom Ambrosio</v>
+        <v>Victor Hugo Gomes</v>
       </c>
       <c r="G85" t="str">
-        <v>compras@limptom.com.br</v>
+        <v>compras@sscempresarial.com.br</v>
       </c>
       <c r="H85" t="str">
-        <v>21 989850555</v>
+        <v>22 30110011</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2015</v>
+        <v>2117</v>
       </c>
       <c r="C86" t="str">
-        <v>2025-08-07 21:04:18</v>
+        <v>2025-08-25 16:24:58</v>
       </c>
       <c r="D86" t="str">
         <v>Rio de Janeiro</v>
@@ -2494,208 +2500,205 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F86" t="str">
-        <v>Caio Vinicius</v>
+        <v>Raquel Rufino</v>
       </c>
       <c r="G86" t="str">
-        <v>caioggioseffi@gmail.com</v>
+        <v>assistente@portobrasilis.com.br</v>
       </c>
       <c r="H86" t="str">
-        <v>0 0</v>
+        <v>21 974023345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2007</v>
+        <v>2113</v>
       </c>
       <c r="C87" t="str">
-        <v>2025-08-07 12:23:06</v>
+        <v>2025-08-25 14:05:41</v>
       </c>
       <c r="D87" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E87" t="str">
-        <v>Saquarema</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F87" t="str">
-        <v>Bywer Industria De Plásticos</v>
+        <v>Fernando Souto</v>
       </c>
       <c r="G87" t="str">
-        <v>compras01@wer.com.br</v>
+        <v>fernando@nortondistribuidora.com.br</v>
       </c>
       <c r="H87" t="str">
-        <v>0 0</v>
+        <v>21 970769075</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1998</v>
+        <v>2109</v>
       </c>
       <c r="C88" t="str">
-        <v>2025-08-05 18:02:57</v>
+        <v>2025-08-25 10:37:48</v>
       </c>
       <c r="D88" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E88" t="str">
-        <v>Campos dos Goytacazes</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F88" t="str">
-        <v>Victor Hugo Gomes</v>
+        <v>Aline Gurgel</v>
       </c>
       <c r="G88" t="str">
-        <v>compras@sscempresarial.com.br</v>
+        <v>opsgig@crossracer.com.br</v>
       </c>
       <c r="H88" t="str">
-        <v>22 30110011</v>
+        <v>21 984362006</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1997</v>
-      </c>
-      <c r="B89" t="str">
-        <v>manual</v>
+        <v>2104</v>
       </c>
       <c r="C89" t="str">
-        <v>2025-08-05 16:27:13</v>
+        <v>2025-08-24 15:43:58</v>
       </c>
       <c r="D89" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E89" t="str">
-        <v>Rio De Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="F89" t="str">
-        <v>Cintia Avelino</v>
+        <v>Leonir Lopes</v>
       </c>
       <c r="G89" t="str">
-        <v>cintia.lorena@corporesolucoes.com.br</v>
+        <v>lopesleonir@gmail.com</v>
       </c>
       <c r="H89" t="str">
-        <v>0 0</v>
+        <v>11 974497772</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1993</v>
+        <v>2085</v>
       </c>
       <c r="C90" t="str">
-        <v>2025-08-05 10:30:57</v>
+        <v>2025-08-20 14:44:01</v>
       </c>
       <c r="D90" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E90" t="str">
-        <v>Ribeirão Preto</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F90" t="str">
-        <v>Secretaria Municipal De Educação De Ribeirão Preto</v>
+        <v>Christiano Araujo</v>
       </c>
       <c r="G90" t="str">
-        <v>joelgui@educacao.pmrp.sp.gov.br</v>
+        <v>administrativo@bfctransportes.com.br</v>
       </c>
       <c r="H90" t="str">
-        <v>0 0</v>
+        <v>21 992144707</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1990</v>
+        <v>2066</v>
       </c>
       <c r="C91" t="str">
-        <v>2025-08-04 17:10:52</v>
+        <v>2025-08-14 23:10:49</v>
       </c>
       <c r="D91" t="str">
-        <v>Goiás</v>
+        <v>São Paulo</v>
       </c>
       <c r="E91" t="str">
-        <v>Novo Gama</v>
+        <v>São Paulo</v>
       </c>
       <c r="F91" t="str">
-        <v>Wolney Willian</v>
+        <v>Felipe Campos Bortoncello</v>
       </c>
       <c r="G91" t="str">
-        <v>mixfacilatacado@gmail.com</v>
+        <v>felipecamposcuso@gmail.com</v>
       </c>
       <c r="H91" t="str">
-        <v>61 36867730</v>
+        <v>11 932894433</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1987</v>
+        <v>2040</v>
       </c>
       <c r="C92" t="str">
-        <v>2025-08-04 11:14:26</v>
+        <v>2025-08-11 16:03:47</v>
       </c>
       <c r="D92" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E92" t="str">
-        <v>Itu</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F92" t="str">
-        <v>Tayna Scaranare Teixeira</v>
+        <v>Marlon Alexandre De Souza Witt</v>
       </c>
       <c r="G92" t="str">
-        <v>compras@plazashoppingitu.com.br</v>
+        <v>compras@witt.adv.br</v>
       </c>
       <c r="H92" t="str">
-        <v>11 40229400</v>
+        <v>41 992680874</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1984</v>
+        <v>2033</v>
       </c>
       <c r="C93" t="str">
-        <v>2025-08-02 22:53:21</v>
+        <v>2025-08-11 14:09:05</v>
       </c>
       <c r="D93" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E93" t="str">
-        <v>Macaé</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F93" t="str">
-        <v>Reinaldo Santos</v>
+        <v>Marlon Alexandre De Souza Witt</v>
       </c>
       <c r="G93" t="str">
-        <v>reijusantos@gmail.com</v>
+        <v>compras@witt.adv.br</v>
       </c>
       <c r="H93" t="str">
-        <v>29 970087942</v>
+        <v>41 992680874</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1982</v>
+        <v>2028</v>
       </c>
       <c r="C94" t="str">
-        <v>2025-08-01 15:34:02</v>
+        <v>2025-08-10 15:21:36</v>
       </c>
       <c r="D94" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E94" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Macaé</v>
       </c>
       <c r="F94" t="str">
-        <v>Daniel Borges Da Silva Borges</v>
+        <v>Gabriel Barcelos</v>
       </c>
       <c r="G94" t="str">
-        <v>daniel.dantel.borges@gmail.com</v>
+        <v>gabrielrrbarcelos@gmail.com</v>
       </c>
       <c r="H94" t="str">
-        <v>21 997690325</v>
+        <v>22 981442005</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1954</v>
+        <v>2022</v>
       </c>
       <c r="C95" t="str">
-        <v>2025-07-29 12:57:16</v>
+        <v>2025-08-08 13:22:50</v>
       </c>
       <c r="D95" t="str">
         <v>Rio de Janeiro</v>
@@ -2704,231 +2707,231 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F95" t="str">
-        <v>Fiocardio SeviÇos Medicos Ltda</v>
+        <v>Álamo Benefícios</v>
       </c>
       <c r="G95" t="str">
-        <v>ws.consultorio@outlook.com</v>
+        <v>administrativo@alamobeneficios.org.br</v>
       </c>
       <c r="H95" t="str">
-        <v>21 35114007</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1953</v>
+        <v>2016</v>
       </c>
       <c r="C96" t="str">
-        <v>2025-07-29 11:54:06</v>
+        <v>2025-08-08 10:24:36</v>
       </c>
       <c r="D96" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E96" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Mesquita</v>
       </c>
       <c r="F96" t="str">
-        <v>Fiocardio SeviÇos Medicos Ltda</v>
+        <v>Tom Ambrosio</v>
       </c>
       <c r="G96" t="str">
-        <v>ws.consultorio@outlook.com</v>
+        <v>compras@limptom.com.br</v>
       </c>
       <c r="H96" t="str">
-        <v>21 35114007</v>
+        <v>21 989850555</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1923</v>
+        <v>2015</v>
       </c>
       <c r="C97" t="str">
-        <v>2025-07-24 09:00:31</v>
+        <v>2025-08-07 21:04:18</v>
       </c>
       <c r="D97" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E97" t="str">
-        <v>Mesquita</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F97" t="str">
-        <v>Tom Ambrosio</v>
+        <v>Caio Vinicius</v>
       </c>
       <c r="G97" t="str">
-        <v>compras@limptom.com.br</v>
+        <v>caioggioseffi@gmail.com</v>
       </c>
       <c r="H97" t="str">
-        <v>21 989850555</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1922</v>
+        <v>2007</v>
       </c>
       <c r="C98" t="str">
-        <v>2025-07-23 19:35:51</v>
+        <v>2025-08-07 12:23:06</v>
       </c>
       <c r="D98" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E98" t="str">
-        <v>Rio das Ostras</v>
+        <v>Saquarema</v>
       </c>
       <c r="F98" t="str">
-        <v>Luíz Henrique Silva</v>
+        <v>Bywer Industria De Plásticos</v>
       </c>
       <c r="G98" t="str">
-        <v>luizhsilva0301@gmail.com</v>
+        <v>compras01@wer.com.br</v>
       </c>
       <c r="H98" t="str">
-        <v>22 988014126</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1920</v>
-      </c>
-      <c r="B99" t="str">
-        <v>manual</v>
+        <v>1998</v>
       </c>
       <c r="C99" t="str">
-        <v>2025-07-23 17:31:42</v>
+        <v>2025-08-05 18:02:57</v>
       </c>
       <c r="D99" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E99" t="str">
-        <v>Rio De Janeiro</v>
+        <v>Campos dos Goytacazes</v>
       </c>
       <c r="F99" t="str">
-        <v>Oplium Seguranca Digital Ltda</v>
+        <v>Victor Hugo Gomes</v>
       </c>
       <c r="G99" t="str">
-        <v>tamires.carneiro@sesatech.com.br</v>
+        <v>compras@sscempresarial.com.br</v>
       </c>
       <c r="H99" t="str">
-        <v>0 0</v>
+        <v>22 30110011</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1916</v>
+        <v>1997</v>
+      </c>
+      <c r="B100" t="str">
+        <v>manual</v>
       </c>
       <c r="C100" t="str">
-        <v>2025-07-23 16:13:37</v>
+        <v>2025-08-05 16:27:13</v>
       </c>
       <c r="D100" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E100" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F100" t="str">
-        <v>Thais Santos</v>
+        <v>Cintia Avelino</v>
       </c>
       <c r="G100" t="str">
-        <v>admbackstop@gmail.com</v>
+        <v>cintia.lorena@corporesolucoes.com.br</v>
       </c>
       <c r="H100" t="str">
-        <v>21 972418132</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1912</v>
+        <v>1993</v>
       </c>
       <c r="C101" t="str">
-        <v>2025-07-23 11:08:11</v>
+        <v>2025-08-05 10:30:57</v>
       </c>
       <c r="D101" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E101" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Ribeirão Preto</v>
       </c>
       <c r="F101" t="str">
-        <v>Fernanda Pereira De Souza</v>
+        <v>Secretaria Municipal De Educação De Ribeirão Preto</v>
       </c>
       <c r="G101" t="str">
-        <v>fernanda.souza@unitradinglog.com.br</v>
+        <v>joelgui@educacao.pmrp.sp.gov.br</v>
       </c>
       <c r="H101" t="str">
-        <v>11 997400649</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1907</v>
+        <v>1990</v>
       </c>
       <c r="C102" t="str">
-        <v>2025-07-22 14:36:15</v>
+        <v>2025-08-04 17:10:52</v>
       </c>
       <c r="D102" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Goiás</v>
       </c>
       <c r="E102" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Novo Gama</v>
       </c>
       <c r="F102" t="str">
-        <v>JosÉ Antonio</v>
+        <v>Wolney Willian</v>
       </c>
       <c r="G102" t="str">
-        <v>antonio@espindolaerodrigues.cnt.br</v>
+        <v>mixfacilatacado@gmail.com</v>
       </c>
       <c r="H102" t="str">
-        <v>21 98489009</v>
+        <v>61 36867730</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1900</v>
+        <v>1987</v>
       </c>
       <c r="C103" t="str">
-        <v>2025-07-19 06:33:43</v>
+        <v>2025-08-04 11:14:26</v>
       </c>
       <c r="D103" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E103" t="str">
-        <v>São João de Meriti</v>
+        <v>Itu</v>
       </c>
       <c r="F103" t="str">
-        <v>Charles Messias</v>
+        <v>Tayna Scaranare Teixeira</v>
       </c>
       <c r="G103" t="str">
-        <v>charles.mds@hotmail.com</v>
+        <v>compras@plazashoppingitu.com.br</v>
       </c>
       <c r="H103" t="str">
-        <v>21 88459601</v>
+        <v>11 40229400</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1899</v>
+        <v>1984</v>
       </c>
       <c r="C104" t="str">
-        <v>2025-07-18 17:41:22</v>
+        <v>2025-08-02 22:53:21</v>
       </c>
       <c r="D104" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E104" t="str">
-        <v>São Paulo</v>
+        <v>Macaé</v>
       </c>
       <c r="F104" t="str">
-        <v>Felipe Campos</v>
+        <v>Reinaldo Santos</v>
       </c>
       <c r="G104" t="str">
-        <v>felipecampos8894@gmail.com</v>
+        <v>reijusantos@gmail.com</v>
       </c>
       <c r="H104" t="str">
-        <v>11 27038094</v>
+        <v>29 970087942</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1894</v>
+        <v>1982</v>
       </c>
       <c r="C105" t="str">
-        <v>2025-07-18 15:16:24</v>
+        <v>2025-08-01 15:34:02</v>
       </c>
       <c r="D105" t="str">
         <v>Rio de Janeiro</v>
@@ -2937,136 +2940,139 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F105" t="str">
-        <v>Fernando Souto</v>
+        <v>Daniel Borges Da Silva Borges</v>
       </c>
       <c r="G105" t="str">
-        <v>fernando@nortondistribuidora.com.br</v>
+        <v>daniel.dantel.borges@gmail.com</v>
       </c>
       <c r="H105" t="str">
-        <v>21 970769075</v>
+        <v>21 997690325</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1886</v>
+        <v>1954</v>
       </c>
       <c r="C106" t="str">
-        <v>2025-07-17 21:47:34</v>
+        <v>2025-07-29 12:57:16</v>
       </c>
       <c r="D106" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E106" t="str">
-        <v>Santos</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F106" t="str">
-        <v>Lilian Lãs Casas Gonçalves Cândido</v>
+        <v>Fiocardio SeviÇos Medicos Ltda</v>
       </c>
       <c r="G106" t="str">
-        <v>lilianlascasa@gmail.com</v>
+        <v>ws.consultorio@outlook.com</v>
       </c>
       <c r="H106" t="str">
-        <v>11 956672522</v>
+        <v>21 35114007</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1880</v>
+        <v>1953</v>
       </c>
       <c r="C107" t="str">
-        <v>2025-07-16 16:07:36</v>
+        <v>2025-07-29 11:54:06</v>
       </c>
       <c r="D107" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E107" t="str">
-        <v>São Gonçalo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F107" t="str">
-        <v>Cia Do Doce</v>
+        <v>Fiocardio SeviÇos Medicos Ltda</v>
       </c>
       <c r="G107" t="str">
-        <v>alcantara.compras@ciadodoce.com.br</v>
+        <v>ws.consultorio@outlook.com</v>
       </c>
       <c r="H107" t="str">
-        <v>21 96928310</v>
+        <v>21 35114007</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1858</v>
+        <v>1923</v>
       </c>
       <c r="C108" t="str">
-        <v>2025-07-14 09:54:41</v>
+        <v>2025-07-24 09:00:31</v>
       </c>
       <c r="D108" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E108" t="str">
-        <v>Rio de Janeiro</v>
+        <v>Mesquita</v>
       </c>
       <c r="F108" t="str">
-        <v>Niteroiense Distribuidora De Alimentos L De Alimentos Ltda</v>
+        <v>Tom Ambrosio</v>
       </c>
       <c r="G108" t="str">
-        <v>niteroiense.compras@ciadodoce.com.br</v>
+        <v>compras@limptom.com.br</v>
       </c>
       <c r="H108" t="str">
-        <v>21 96928310</v>
+        <v>21 989850555</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1856</v>
+        <v>1922</v>
       </c>
       <c r="C109" t="str">
-        <v>2025-07-11 21:03:29</v>
+        <v>2025-07-23 19:35:51</v>
       </c>
       <c r="D109" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E109" t="str">
-        <v>Mogi das Cruzes</v>
+        <v>Rio das Ostras</v>
       </c>
       <c r="F109" t="str">
-        <v>Roogerio Luiz</v>
+        <v>Luíz Henrique Silva</v>
       </c>
       <c r="G109" t="str">
-        <v>miaria6667@outlook.com</v>
+        <v>luizhsilva0301@gmail.com</v>
       </c>
       <c r="H109" t="str">
-        <v>11 98743434</v>
+        <v>22 988014126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1853</v>
+        <v>1920</v>
+      </c>
+      <c r="B110" t="str">
+        <v>manual</v>
       </c>
       <c r="C110" t="str">
-        <v>2025-07-11 14:03:16</v>
+        <v>2025-07-23 17:31:42</v>
       </c>
       <c r="D110" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E110" t="str">
-        <v>Campos dos Goytacazes</v>
+        <v>Rio De Janeiro</v>
       </c>
       <c r="F110" t="str">
-        <v>Associação Raízes Nea Bc</v>
+        <v>Oplium Seguranca Digital Ltda</v>
       </c>
       <c r="G110" t="str">
-        <v>compras@neabc.org.br</v>
+        <v>tamires.carneiro@sesatech.com.br</v>
       </c>
       <c r="H110" t="str">
-        <v>22 999561648</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1844</v>
+        <v>1916</v>
       </c>
       <c r="C111" t="str">
-        <v>2025-07-10 10:12:07</v>
+        <v>2025-07-23 16:13:37</v>
       </c>
       <c r="D111" t="str">
         <v>Rio de Janeiro</v>
@@ -3075,156 +3081,340 @@
         <v>Rio de Janeiro</v>
       </c>
       <c r="F111" t="str">
-        <v>Rio AtacadÃo Alimentos Ltda</v>
+        <v>Thais Santos</v>
       </c>
       <c r="G111" t="str">
-        <v>compras6@rioatacadao.com.br</v>
+        <v>admbackstop@gmail.com</v>
       </c>
       <c r="H111" t="str">
-        <v>21 969283106</v>
+        <v>21 972418132</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1826</v>
+        <v>1912</v>
       </c>
       <c r="C112" t="str">
-        <v>2025-07-07 18:15:00</v>
+        <v>2025-07-23 11:08:11</v>
       </c>
       <c r="D112" t="str">
-        <v>Paraiba</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E112" t="str">
-        <v>Campina Grande</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F112" t="str">
-        <v>Casa Casa</v>
+        <v>Fernanda Pereira De Souza</v>
       </c>
       <c r="G112" t="str">
-        <v>casacasacasacas@gmail.com</v>
+        <v>fernanda.souza@unitradinglog.com.br</v>
       </c>
       <c r="H112" t="str">
-        <v>21 24323233</v>
+        <v>11 997400649</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1820</v>
+        <v>1907</v>
       </c>
       <c r="C113" t="str">
-        <v>2025-07-03 11:52:13</v>
+        <v>2025-07-22 14:36:15</v>
       </c>
       <c r="D113" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E113" t="str">
-        <v>São João de Meriti</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F113" t="str">
-        <v>Mello Castro</v>
+        <v>JosÉ Antonio</v>
       </c>
       <c r="G113" t="str">
-        <v>qualidade@melloecastro.com</v>
+        <v>antonio@espindolaerodrigues.cnt.br</v>
       </c>
       <c r="H113" t="str">
-        <v>21 26965627</v>
+        <v>21 98489009</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1799</v>
+        <v>1900</v>
       </c>
       <c r="C114" t="str">
-        <v>2025-07-01 13:22:01</v>
+        <v>2025-07-19 06:33:43</v>
       </c>
       <c r="D114" t="str">
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="E114" t="str">
-        <v>Guarulhos</v>
+        <v>São João de Meriti</v>
       </c>
       <c r="F114" t="str">
-        <v>Thiago Bastos</v>
+        <v>Charles Messias</v>
       </c>
       <c r="G114" t="str">
-        <v>thiagoalvesbastos440@gmail.com</v>
+        <v>charles.mds@hotmail.com</v>
       </c>
       <c r="H114" t="str">
-        <v>0 0</v>
+        <v>21 88459601</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1782</v>
+        <v>1899</v>
       </c>
       <c r="C115" t="str">
-        <v>2025-06-29 13:22:55</v>
+        <v>2025-07-18 17:41:22</v>
       </c>
       <c r="D115" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E115" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="F115" t="str">
-        <v>Leilane C Campelo</v>
+        <v>Felipe Campos</v>
       </c>
       <c r="G115" t="str">
-        <v>leilanecordeiro02@gmail.com</v>
+        <v>felipecampos8894@gmail.com</v>
       </c>
       <c r="H115" t="str">
-        <v>21 977449476</v>
+        <v>11 27038094</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1781</v>
+        <v>1894</v>
       </c>
       <c r="C116" t="str">
-        <v>2025-06-28 13:58:15</v>
+        <v>2025-07-18 15:16:24</v>
       </c>
       <c r="D116" t="str">
         <v>Rio de Janeiro</v>
       </c>
       <c r="E116" t="str">
-        <v>Duque de Caxias</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="F116" t="str">
-        <v>Bruna Dayane De Oliveira Amaral Lima</v>
+        <v>Fernando Souto</v>
       </c>
       <c r="G116" t="str">
-        <v>dayanemodasrj@gmail.com</v>
+        <v>fernando@nortondistribuidora.com.br</v>
       </c>
       <c r="H116" t="str">
-        <v>21 27721379</v>
+        <v>21 970769075</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1780</v>
+        <v>1886</v>
       </c>
       <c r="C117" t="str">
-        <v>2025-06-27 22:53:22</v>
+        <v>2025-07-17 21:47:34</v>
       </c>
       <c r="D117" t="str">
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="E117" t="str">
-        <v>Queimados</v>
+        <v>Santos</v>
       </c>
       <c r="F117" t="str">
-        <v>Ingrid Ferreira</v>
+        <v>Lilian Lãs Casas Gonçalves Cândido</v>
       </c>
       <c r="G117" t="str">
-        <v>ingrid.ferreiraa1805@gmail.com</v>
+        <v>lilianlascasa@gmail.com</v>
       </c>
       <c r="H117" t="str">
-        <v>21 971540924</v>
+        <v>11 956672522</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1880</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2025-07-16 16:07:36</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="E118" t="str">
+        <v>São Gonçalo</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Cia Do Doce</v>
+      </c>
+      <c r="G118" t="str">
+        <v>alcantara.compras@ciadodoce.com.br</v>
+      </c>
+      <c r="H118" t="str">
+        <v>21 96928310</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1858</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2025-07-14 09:54:41</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Niteroiense Distribuidora De Alimentos L De Alimentos Ltda</v>
+      </c>
+      <c r="G119" t="str">
+        <v>niteroiense.compras@ciadodoce.com.br</v>
+      </c>
+      <c r="H119" t="str">
+        <v>21 96928310</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1856</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2025-07-11 21:03:29</v>
+      </c>
+      <c r="D120" t="str">
+        <v>São Paulo</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Mogi das Cruzes</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Roogerio Luiz</v>
+      </c>
+      <c r="G120" t="str">
+        <v>miaria6667@outlook.com</v>
+      </c>
+      <c r="H120" t="str">
+        <v>11 98743434</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1853</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2025-07-11 14:03:16</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Campos dos Goytacazes</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Associação Raízes Nea Bc</v>
+      </c>
+      <c r="G121" t="str">
+        <v>compras@neabc.org.br</v>
+      </c>
+      <c r="H121" t="str">
+        <v>22 999561648</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1844</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2025-07-10 10:12:07</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Rio AtacadÃo Alimentos Ltda</v>
+      </c>
+      <c r="G122" t="str">
+        <v>compras6@rioatacadao.com.br</v>
+      </c>
+      <c r="H122" t="str">
+        <v>21 969283106</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1826</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2025-07-07 18:15:00</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Paraiba</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Campina Grande</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Casa Casa</v>
+      </c>
+      <c r="G123" t="str">
+        <v>casacasacasacas@gmail.com</v>
+      </c>
+      <c r="H123" t="str">
+        <v>21 24323233</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1820</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2025-07-03 11:52:13</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Rio de Janeiro</v>
+      </c>
+      <c r="E124" t="str">
+        <v>São João de Meriti</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Mello Castro</v>
+      </c>
+      <c r="G124" t="str">
+        <v>qualidade@melloecastro.com</v>
+      </c>
+      <c r="H124" t="str">
+        <v>21 26965627</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1799</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2025-07-01 13:22:01</v>
+      </c>
+      <c r="D125" t="str">
+        <v>São Paulo</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Guarulhos</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Thiago Bastos</v>
+      </c>
+      <c r="G125" t="str">
+        <v>thiagoalvesbastos440@gmail.com</v>
+      </c>
+      <c r="H125" t="str">
+        <v>0 0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H125"/>
   </ignoredErrors>
 </worksheet>
 </file>